--- a/all-train.xlsx
+++ b/all-train.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$123</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1230,11 +1233,14 @@
   <sheetPr/>
   <dimension ref="A1:I1058"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
       <selection activeCell="A124" sqref="A124:I1058"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="9.66666666666667"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -1273,7 +1279,7 @@
         <v>2340.5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>153.12</v>
@@ -1302,7 +1308,7 @@
         <v>2340.625</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>145.975</v>
@@ -1331,7 +1337,7 @@
         <v>2340.75</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>135.607</v>
@@ -1360,7 +1366,7 @@
         <v>2340.875</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>121.661</v>
@@ -1389,7 +1395,7 @@
         <v>2341</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>106.112</v>
@@ -1418,7 +1424,7 @@
         <v>2341.125</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>92.999</v>
@@ -1447,7 +1453,7 @@
         <v>2341.25</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>85.939</v>
@@ -1476,7 +1482,7 @@
         <v>2341.375</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>86.238</v>
@@ -1505,7 +1511,7 @@
         <v>2341.5</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>92.871</v>
@@ -1534,7 +1540,7 @@
         <v>2341.625</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>104.034</v>
@@ -1563,7 +1569,7 @@
         <v>2341.75</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>117.25</v>
@@ -1592,7 +1598,7 @@
         <v>2341.875</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>129.089</v>
@@ -1621,7 +1627,7 @@
         <v>2342</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <v>137.184</v>
@@ -1650,7 +1656,7 @@
         <v>2342.125</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15">
         <v>141.09</v>
@@ -1679,7 +1685,7 @@
         <v>2342.25</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16">
         <v>142.754</v>
@@ -1708,7 +1714,7 @@
         <v>2342.375</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <v>144.312</v>
@@ -1737,7 +1743,7 @@
         <v>2342.5</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <v>147.481</v>
@@ -1766,7 +1772,7 @@
         <v>2496.25</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19">
         <v>151.802</v>
@@ -1795,7 +1801,7 @@
         <v>2496.375</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <v>150.56</v>
@@ -1824,7 +1830,7 @@
         <v>2496.5</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21">
         <v>148.415</v>
@@ -1853,7 +1859,7 @@
         <v>2496.625</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <v>142.983</v>
@@ -1882,7 +1888,7 @@
         <v>2496.75</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23">
         <v>133.234</v>
@@ -1911,7 +1917,7 @@
         <v>2496.875</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>120.549</v>
@@ -1940,7 +1946,7 @@
         <v>2497</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25">
         <v>108.453</v>
@@ -1969,7 +1975,7 @@
         <v>2497.125</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26">
         <v>100.095</v>
@@ -1998,7 +2004,7 @@
         <v>2497.25</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27">
         <v>96.446</v>
@@ -2027,7 +2033,7 @@
         <v>2497.375</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28">
         <v>96.394</v>
@@ -2056,7 +2062,7 @@
         <v>2497.5</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29">
         <v>99.797</v>
@@ -2085,7 +2091,7 @@
         <v>2497.625</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30">
         <v>106.947</v>
@@ -2114,7 +2120,7 @@
         <v>2497.75</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31">
         <v>116.84</v>
@@ -2143,7 +2149,7 @@
         <v>2497.875</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32">
         <v>126.815</v>
@@ -2172,7 +2178,7 @@
         <v>2498</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33">
         <v>134.138</v>
@@ -2201,7 +2207,7 @@
         <v>2498.125</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34">
         <v>138.153</v>
@@ -2230,7 +2236,7 @@
         <v>2498.25</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35">
         <v>139.942</v>
@@ -2259,7 +2265,7 @@
         <v>2498.375</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36">
         <v>141.31</v>
@@ -2288,7 +2294,7 @@
         <v>2498.5</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37">
         <v>144.403</v>
@@ -2317,7 +2323,7 @@
         <v>2332.811</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38">
         <v>120.948</v>
@@ -2346,7 +2352,7 @@
         <v>2332.936</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39">
         <v>114.038</v>
@@ -2375,7 +2381,7 @@
         <v>2333.061</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40">
         <v>103.32</v>
@@ -2404,7 +2410,7 @@
         <v>2333.186</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41">
         <v>91.981</v>
@@ -2433,7 +2439,7 @@
         <v>2333.311</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42">
         <v>83.162</v>
@@ -2462,7 +2468,7 @@
         <v>2333.436</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43">
         <v>79.071</v>
@@ -2491,7 +2497,7 @@
         <v>2333.561</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44">
         <v>79.154</v>
@@ -2520,7 +2526,7 @@
         <v>2333.686</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45">
         <v>82.979</v>
@@ -2549,7 +2555,7 @@
         <v>2333.811</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46">
         <v>90.174</v>
@@ -2578,7 +2584,7 @@
         <v>2333.936</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47">
         <v>100.108</v>
@@ -2607,7 +2613,7 @@
         <v>2334.061</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48">
         <v>110.789</v>
@@ -2636,7 +2642,7 @@
         <v>2334.186</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49">
         <v>118.675</v>
@@ -2665,7 +2671,7 @@
         <v>2334.311</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50">
         <v>122.528</v>
@@ -2694,7 +2700,7 @@
         <v>3358.75</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51">
         <v>165.136</v>
@@ -2723,7 +2729,7 @@
         <v>3358.875</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>164.014</v>
@@ -2752,7 +2758,7 @@
         <v>3359</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53">
         <v>162.439</v>
@@ -2781,7 +2787,7 @@
         <v>3359.125</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54">
         <v>160.31</v>
@@ -2810,7 +2816,7 @@
         <v>3359.25</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55">
         <v>157.44</v>
@@ -2839,7 +2845,7 @@
         <v>3359.375</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56">
         <v>153.422</v>
@@ -2868,7 +2874,7 @@
         <v>3359.5</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57">
         <v>147.84</v>
@@ -2897,7 +2903,7 @@
         <v>3359.625</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58">
         <v>140.64</v>
@@ -2926,7 +2932,7 @@
         <v>3359.75</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59">
         <v>132.198</v>
@@ -2955,7 +2961,7 @@
         <v>3359.875</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60">
         <v>123.196</v>
@@ -2984,7 +2990,7 @@
         <v>3360</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61">
         <v>114.584</v>
@@ -3013,7 +3019,7 @@
         <v>3360.125</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62">
         <v>107.323</v>
@@ -3042,7 +3048,7 @@
         <v>3360.25</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63">
         <v>101.88</v>
@@ -3071,7 +3077,7 @@
         <v>3360.375</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64">
         <v>98.134</v>
@@ -3100,7 +3106,7 @@
         <v>3360.5</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65">
         <v>95.837</v>
@@ -3129,7 +3135,7 @@
         <v>3360.625</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66">
         <v>94.979</v>
@@ -3158,7 +3164,7 @@
         <v>3360.75</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67">
         <v>95.501</v>
@@ -3187,7 +3193,7 @@
         <v>3360.875</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68">
         <v>97.212</v>
@@ -3216,7 +3222,7 @@
         <v>3361</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69">
         <v>100.065</v>
@@ -3245,7 +3251,7 @@
         <v>3361.125</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70">
         <v>104.13</v>
@@ -3274,7 +3280,7 @@
         <v>3361.25</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71">
         <v>109.377</v>
@@ -3303,7 +3309,7 @@
         <v>3361.375</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72">
         <v>115.707</v>
@@ -3332,7 +3338,7 @@
         <v>3361.5</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73">
         <v>122.831</v>
@@ -3361,7 +3367,7 @@
         <v>3361.625</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74">
         <v>130.152</v>
@@ -3390,7 +3396,7 @@
         <v>3361.75</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75">
         <v>136.99</v>
@@ -3419,7 +3425,7 @@
         <v>3361.875</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76">
         <v>142.781</v>
@@ -3448,7 +3454,7 @@
         <v>3362</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77">
         <v>147.231</v>
@@ -3477,7 +3483,7 @@
         <v>3170.25</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78">
         <v>168.853</v>
@@ -3506,7 +3512,7 @@
         <v>3170.375</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79">
         <v>165.856</v>
@@ -3535,7 +3541,7 @@
         <v>3170.5</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80">
         <v>159.955</v>
@@ -3564,7 +3570,7 @@
         <v>3170.625</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81">
         <v>149.104</v>
@@ -3593,7 +3599,7 @@
         <v>3170.75</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82">
         <v>134.778</v>
@@ -3622,7 +3628,7 @@
         <v>3170.875</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83">
         <v>120.238</v>
@@ -3651,7 +3657,7 @@
         <v>3171</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84">
         <v>108.694</v>
@@ -3680,7 +3686,7 @@
         <v>3171.125</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85">
         <v>100.896</v>
@@ -3709,7 +3715,7 @@
         <v>3171.25</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86">
         <v>96.618</v>
@@ -3738,7 +3744,7 @@
         <v>3171.375</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87">
         <v>95.766</v>
@@ -3767,7 +3773,7 @@
         <v>3171.5</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88">
         <v>97.091</v>
@@ -3796,7 +3802,7 @@
         <v>3171.625</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89">
         <v>99.891</v>
@@ -3825,7 +3831,7 @@
         <v>3171.75</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90">
         <v>103.796</v>
@@ -3854,7 +3860,7 @@
         <v>3171.875</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91">
         <v>109.267</v>
@@ -3883,7 +3889,7 @@
         <v>3172</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92">
         <v>116.777</v>
@@ -3912,7 +3918,7 @@
         <v>3172.125</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93">
         <v>126.214</v>
@@ -3941,7 +3947,7 @@
         <v>3172.25</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94">
         <v>136.269</v>
@@ -3970,7 +3976,7 @@
         <v>3172.375</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95">
         <v>144.867</v>
@@ -3999,7 +4005,7 @@
         <v>3172.5</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96">
         <v>150.999</v>
@@ -4028,7 +4034,7 @@
         <v>3172.625</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97">
         <v>154.905</v>
@@ -4057,7 +4063,7 @@
         <v>3172.75</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98">
         <v>157.424</v>
@@ -4086,7 +4092,7 @@
         <v>3172.875</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99">
         <v>158.927</v>
@@ -4115,7 +4121,7 @@
         <v>3173</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100">
         <v>159.218</v>
@@ -4144,7 +4150,7 @@
         <v>3173.125</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101">
         <v>158.76</v>
@@ -4173,7 +4179,7 @@
         <v>3173.25</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D102">
         <v>158.299</v>
@@ -4202,7 +4208,7 @@
         <v>3063.5</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D103">
         <v>169.948</v>
@@ -4231,7 +4237,7 @@
         <v>3063.625</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D104">
         <v>159.836</v>
@@ -4260,7 +4266,7 @@
         <v>3063.75</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D105">
         <v>147.401</v>
@@ -4289,7 +4295,7 @@
         <v>3063.875</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D106">
         <v>134.457</v>
@@ -4318,7 +4324,7 @@
         <v>3064</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D107">
         <v>123.423</v>
@@ -4347,7 +4353,7 @@
         <v>3064.125</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D108">
         <v>115.873</v>
@@ -4376,7 +4382,7 @@
         <v>3064.25</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D109">
         <v>111.501</v>
@@ -4405,7 +4411,7 @@
         <v>3064.375</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D110">
         <v>109.967</v>
@@ -4434,7 +4440,7 @@
         <v>3064.5</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D111">
         <v>110.674</v>
@@ -4463,7 +4469,7 @@
         <v>3064.625</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D112">
         <v>112.497</v>
@@ -4492,7 +4498,7 @@
         <v>3064.75</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D113">
         <v>114.56</v>
@@ -4521,7 +4527,7 @@
         <v>3064.875</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D114">
         <v>116.974</v>
@@ -4550,7 +4556,7 @@
         <v>3065</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D115">
         <v>120.084</v>
@@ -4579,7 +4585,7 @@
         <v>3065.125</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D116">
         <v>124.396</v>
@@ -4608,7 +4614,7 @@
         <v>3065.25</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D117">
         <v>130.284</v>
@@ -4637,7 +4643,7 @@
         <v>3065.375</v>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D118">
         <v>138.48</v>
@@ -4666,7 +4672,7 @@
         <v>3065.5</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D119">
         <v>148.78</v>
@@ -4695,7 +4701,7 @@
         <v>3065.625</v>
       </c>
       <c r="C120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D120">
         <v>159.088</v>
@@ -4724,7 +4730,7 @@
         <v>3065.75</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D121">
         <v>166.441</v>
@@ -4753,7 +4759,7 @@
         <v>3065.875</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D122">
         <v>170.387</v>
@@ -4782,7 +4788,7 @@
         <v>3066</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D123">
         <v>173.126</v>
@@ -31919,6 +31925,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C1:C123" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
